--- a/Result/check3/2025-03-12.xlsx
+++ b/Result/check3/2025-03-12.xlsx
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8930</t>
+          <t>8155</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1730.0</t>
+          <t>5853.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,27 +698,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>45.11</t>
+          <t>47.46</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>41.35</t>
+          <t>143.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -728,32 +728,32 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-7.96</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -763,37 +763,37 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>338.0</t>
+          <t>188.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,32 +808,32 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>135655.0</t>
+          <t>857139.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>青鋼</t>
+          <t>博智</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -843,57 +843,57 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>12.72</t>
+          <t>31.24</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>25.99%</t>
+          <t>15.82%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>16.43%</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>17.06</t>
+          <t>65.32</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>8201</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>隔間板輕鋼架48.50%、天花板輕鋼架系列17.99%、金屬天花板16.71%、鋼捲16.20%、其他0.60% (2023年)</t>
+          <t>印刷電路板(PCB)97.26%、樣品及其他2.74% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>青鋼-鋼鐵工業-上櫃</t>
+          <t>博智-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>18.84</t>
+          <t>43.21</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8155</t>
+          <t>8088</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5853.0</t>
+          <t>3058.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,27 +935,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>47.46</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>143.5</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -965,72 +965,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>938</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-6.37</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>188.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1055,22 +1055,22 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>857139.0</t>
+          <t>-157402.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>博智</t>
+          <t>品安</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1080,57 +1080,57 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>31.77</t>
+          <t>196.88</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>15.82%</t>
+          <t>13.29%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>11.78%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>71.59</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>8341</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)97.26%、樣品及其他2.74% (2024年)</t>
+          <t>記憶體模組產品98.77%、快閃記憶體相關產品1.23% (2023年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>博智-電子零組件業-上櫃</t>
+          <t>品安-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>43.21</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1152,17 +1152,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8088</t>
+          <t>6658</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3058.0</t>
+          <t>4800.375</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,27 +1172,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1202,82 +1202,82 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>-7.82</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>857</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>216.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1292,82 +1292,82 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-157402.0</t>
+          <t>1076640491.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>品安</t>
+          <t>聯策</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>195.94</t>
+          <t>70.37</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>13.29%</t>
+          <t>23.51%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>11.78%</t>
+          <t>3.83%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>72.55</t>
+          <t>44.94</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>記憶體模組產品98.77%、快閃記憶體相關產品1.23% (2023年)</t>
+          <t>商品銷售79.43%、印刷電路板表面處理18.30%、其他勞務2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>品安-半導體業-上櫃</t>
+          <t>聯策-其他電子業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>16.79</t>
+          <t>36.02</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1389,17 +1389,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6658</t>
+          <t>6227</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4800.375</t>
+          <t>7936.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,27 +1409,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>97.4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-4.42</t>
+          <t>14.56</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1449,72 +1449,72 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>1376</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.28</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>216.0</t>
+          <t>190.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1524,87 +1524,87 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1076640491.0</t>
+          <t>1770006.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>聯策</t>
+          <t>茂綸</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>72.66</t>
+          <t>17.4</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>23.51%</t>
+          <t>12.53%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>3.83%</t>
+          <t>5.71%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>45.09</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>8677</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>商品銷售79.43%、印刷電路板表面處理18.30%、其他勞務2.27% (2024年)</t>
+          <t>半導體電子零組件98.37%、其他營業收入1.63% (2023年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>聯策-其他電子業-上市</t>
+          <t>茂綸-電子通路業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>36.02</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1626,17 +1626,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6227</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7936.0</t>
+          <t>24657.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1646,27 +1646,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>49.57</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>160.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1676,57 +1676,57 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21.77</t>
+          <t>17.9</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>18018</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.80</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>190.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1756,32 +1756,32 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1770006.0</t>
+          <t>12140806.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>茂綸</t>
+          <t>高技</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1791,57 +1791,57 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>19.01</t>
+          <t>60.53</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>12.53%</t>
+          <t>15.58%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>5.71%</t>
+          <t>10.41%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>39.11</t>
+          <t>66.3</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>9476</t>
+          <t>18177</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>半導體電子零組件98.37%、其他營業收入1.63% (2023年)</t>
+          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>茂綸-電子通路業-上櫃</t>
+          <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1863,17 +1863,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24657.0</t>
+          <t>893.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>49.57</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>160.5</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1913,72 +1913,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>17.9</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>18018</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1993,32 +1993,32 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>12140806.0</t>
+          <t>1179.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>高技</t>
+          <t>光聯</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2028,57 +2028,57 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>60.53</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>15.58%</t>
+          <t>14.01%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>10.41%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>82.19</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>18177</t>
+          <t>2499</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
+          <t>顯示器模組(LCM)96.52%、液晶顯示器(LCD)3.48% (2023年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>高技-電子零組件業-上櫃</t>
+          <t>光聯-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2100,17 +2100,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>5222</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>893.0</t>
+          <t>497.148</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2150,77 +2150,77 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>-2.71</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>97.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2240,82 +2240,82 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1179.0</t>
+          <t>194074672.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>光聯</t>
+          <t>全訊</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>19.55</t>
+          <t>26.55</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>14.01%</t>
+          <t>50.73%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>6.08%</t>
+          <t>32.83%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>181.53</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>10537</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>顯示器模組(LCM)96.52%、液晶顯示器(LCD)3.48% (2023年)</t>
+          <t>微波放大器77.60%、微波次系統21.18%、其他1.22% (2023年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>光聯-光電業-上櫃</t>
+          <t>全訊-半導體業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>16.11</t>
+          <t>30.24</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2337,17 +2337,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>4931</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>497.148</t>
+          <t>131367.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2357,202 +2357,202 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>88.5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>33430</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>131.0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>663</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-2.24</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>97.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>194074672.0</t>
+          <t>29090546.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>全訊</t>
+          <t>新盛力</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>27.69</t>
+          <t>36.28</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>50.73%</t>
+          <t>26.77%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>32.83%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>184.39</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>10988</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>微波放大器77.60%、微波次系統21.18%、其他1.22% (2023年)</t>
+          <t>鋰電池模組100.00% (2023年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>全訊-半導體業-上市</t>
+          <t>新盛力-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>30.24</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2574,17 +2574,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4931</t>
+          <t>4541</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>131367.0</t>
+          <t>6563.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2594,27 +2594,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-2.76</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>88.5</t>
+          <t>39.7</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2624,57 +2624,57 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>18.14</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>88</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>28564</t>
+          <t>34247</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>-8.62</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2684,17 +2684,17 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>167.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>29090546.0</t>
+          <t>552479.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>新盛力</t>
+          <t>晟田</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2739,57 +2739,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>36.24</t>
+          <t>38.49</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>26.77%</t>
+          <t>22.84%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>13.57%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>64.98</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>3281</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>鋰電池模組100.00% (2023年)</t>
+          <t>航太零組件67.18%、半導體製程設備零組件19.84%、其他12.99% (2023年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>新盛力-電腦及週邊設備業-上櫃</t>
+          <t>晟田-其他-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>17.92</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2811,17 +2811,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6563.0</t>
+          <t>637.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2831,27 +2831,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2.76</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>61.2</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2861,77 +2861,77 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>23.36</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>46246</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>167.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>552479.0</t>
+          <t>70160.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>晟田</t>
+          <t>光明</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2976,57 +2976,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>36.38</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>41.11</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>22.84%</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>13.57%</t>
+          <t>1.95%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>65.95</t>
+          <t>54.12</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>3504</t>
+          <t>2391</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>航太零組件67.18%、半導體製程設備零組件19.84%、其他12.99% (2023年)</t>
+          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>晟田-其他-上櫃</t>
+          <t>光明-紡織纖維-上櫃</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>23.98</t>
+          <t>37.33</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3048,17 +3048,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>637.0</t>
+          <t>31511.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3068,27 +3068,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>58.39</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>61.2</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3098,72 +3098,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>20.07</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>86</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>19058</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3178,32 +3178,32 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>70160.0</t>
+          <t>6007565.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>光明</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3213,57 +3213,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>31.62</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>1.69%</t>
+          <t>9.30%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>1.95%</t>
+          <t>-26.59%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>54.41</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>6835</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>光明-紡織纖維-上櫃</t>
+          <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>塑膠工業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>37.33</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3285,17 +3285,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>31511.0</t>
+          <t>7710.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3305,142 +3305,142 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>58.39</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>22.91</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>38121</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>56.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>6007565.0</t>
+          <t>329665.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3450,57 +3450,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>9.30%</t>
+          <t>18.53%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>-26.59%</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>89.2</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3522,17 +3522,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7710.0</t>
+          <t>850.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3542,27 +3542,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>33.2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3572,72 +3572,72 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>556</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>426.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3652,27 +3652,27 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>329665.0</t>
+          <t>-10944.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>健喬</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3687,57 +3687,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>19.84</t>
+          <t>20.92</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>18.53%</t>
+          <t>43.05%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>13.27%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>89.2</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>15834</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>健喬-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3809,17 +3809,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>-1.4</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3829,12 +3829,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-4.74</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -4046,17 +4046,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>707</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -4186,17 +4186,17 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>44.14</t>
+          <t>43.83</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>15026</t>
+          <t>15106</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、面膜0.01%、食品-其他0.01% (2023年)</t>
+          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、食品-其他0.01%、面膜0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -4283,17 +4283,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>55</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>5208</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-3.10</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>20.7</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -4423,12 +4423,12 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>128.54</t>
+          <t>126.52</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>49580</t>
+          <t>51453</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -4520,17 +4520,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>99</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>9255</t>
+          <t>12765</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>26.35</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4660,12 +4660,12 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>83.07</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>3741</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4707,17 +4707,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1281.0</t>
+          <t>20632.517</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4727,27 +4727,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>-4.95</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>32.7</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4757,57 +4757,57 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>673</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>238.0</t>
+          <t>571.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4832,12 +4832,12 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -4847,82 +4847,82 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>48465.0</t>
+          <t>2631248182.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21.83</t>
+          <t>18.49</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>1.51%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>5123</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>安全監視產品81.64%、工業應用產品10.77%、其他5.88%、健康醫療產品1.24%、健康及保健產品0.48% (2023年)</t>
+          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -4944,17 +4944,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14894.0</t>
+          <t>1281.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4964,27 +4964,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>26.53</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>36.55</t>
+          <t>32.7</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4994,112 +4994,112 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>18.35</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>28.66</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>238.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>928207.0</t>
+          <t>48465.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>加百裕</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -5109,57 +5109,57 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>14.51</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>8.79%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>-1.80%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>82.19</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>3780</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>鋰電池組99.16%、其他0.84% (2023年)</t>
+          <t>安全監視產品81.64%、工業應用產品10.77%、其他5.88%、健康醫療產品1.24%、健康及保健產品0.48% (2023年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>加百裕-電腦及週邊設備業-上櫃</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>27.35</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5181,17 +5181,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>32580.0</t>
+          <t>14894.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5201,27 +5201,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>43.46</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>203.5</t>
+          <t>36.55</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5231,57 +5231,57 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-4.63</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>6728</t>
+          <t>14313</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>28.66</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -5291,12 +5291,12 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5311,27 +5311,27 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>5265970.0</t>
+          <t>928207.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>順達</t>
+          <t>加百裕</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -5346,47 +5346,47 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>14.51</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>11.62%</t>
+          <t>8.79%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>4.09%</t>
+          <t>-1.80%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>29673</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>鋰電池組99.16%、其他0.84% (2023年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>加百裕-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>27.35</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5418,17 +5418,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>686.081</t>
+          <t>32580.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5438,27 +5438,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>43.46</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>25.35</t>
+          <t>203.5</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5468,77 +5468,77 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>-6.54</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2348</t>
+          <t>5027</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>106.0</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -5558,17 +5558,17 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>118461426.0</t>
+          <t>5265970.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>銘異</t>
+          <t>順達</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -5578,52 +5578,52 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>63.56</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>16.65%</t>
+          <t>11.62%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>5.46%</t>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>124.87</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>3934</t>
+          <t>29139</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>音圈馬達(VCM)43.59%、其他18.34%、硬碟機上蓋(COVER)17.34%、外接式儲存設備10.89%、硬碟機零組件(HDD)5.75%、顯微鏡零組件4.10% (2024年)</t>
+          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>銘異-電腦及週邊設備業-上市</t>
+          <t>順達-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>19.65</t>
+          <t>70.29</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5655,17 +5655,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3027</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>232.554</t>
+          <t>686.081</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5675,114 +5675,114 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>31.1</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>1074</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-2.20</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>2025-03-12</t>
@@ -5790,27 +5790,27 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>13641934.0</t>
+          <t>118461426.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>盛達</t>
+          <t>銘異</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5820,57 +5820,57 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64.33</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>20.70%</t>
+          <t>16.65%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>-1.92%</t>
+          <t>5.46%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>128.54</t>
+          <t>121.73</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>3408</t>
+          <t>3982</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>再生能源-系統整合40.39%、再生能源-設備銷售35.86%、通訊電子設備12.27%、電源設備7.20%、再生能源-其他4.28% (2024年)</t>
+          <t>音圈馬達(VCM)43.59%、其他18.34%、硬碟機上蓋(COVER)17.34%、外接式儲存設備10.89%、硬碟機零組件(HDD)5.75%、顯微鏡零組件4.10% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>盛達-通信網路業-上市</t>
+          <t>銘異-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>18.38</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5942,17 +5942,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -5962,12 +5962,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>14.07</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -6082,12 +6082,12 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>70876</t>
+          <t>70066</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -6179,17 +6179,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1455</t>
+          <t>853</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -6319,12 +6319,12 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>12586</t>
+          <t>12605</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -6416,17 +6416,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>100</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>5958</t>
+          <t>8612</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>14.33</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
@@ -6556,12 +6556,12 @@
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>118653</t>
+          <t>118929</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -6653,17 +6653,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>16.88</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>150</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>34932</t>
+          <t>27370</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>-4.39</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>26.97</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
@@ -6793,12 +6793,12 @@
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>51049</t>
+          <t>49354</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
@@ -6890,17 +6890,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-4.8</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>6831</t>
+          <t>13532</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
@@ -7030,12 +7030,12 @@
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>146454</t>
+          <t>144941</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -7364,17 +7364,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>248</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>8084</t>
+          <t>15874</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>14.35</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
@@ -7504,12 +7504,12 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>497960</t>
+          <t>490382</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -7601,17 +7601,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>53</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>6484</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -7621,12 +7621,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -7741,12 +7741,12 @@
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>49.91</t>
+          <t>50.04</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>14388</t>
+          <t>14750</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -7788,17 +7788,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4576.847</t>
+          <t>3903.871</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7808,27 +7808,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>42.23</t>
+          <t>80.83</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -7838,57 +7838,57 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -7898,12 +7898,12 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>303.0</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -7918,32 +7918,32 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>1666556854.0</t>
+          <t>374484323.0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>櫻花建</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -7953,57 +7953,57 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>19.15</t>
+          <t>23.75</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>24.79%</t>
+          <t>46.98%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>12.81%</t>
+          <t>42.67%</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>184.39</t>
+          <t>50.04</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>44275</t>
+          <t>67311</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
+          <t>房屋99.99%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>創見-半導體業-上市</t>
+          <t>櫻花建-建材營造-上市</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
@@ -8025,17 +8025,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>15169.923</t>
+          <t>4576.847</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8045,27 +8045,27 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>33.37</t>
+          <t>42.23</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>101.0</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -8075,32 +8075,32 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>25.84</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>11659</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -8110,37 +8110,37 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>219.0</t>
+          <t>303.0</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -8155,32 +8155,32 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>1195306729.0</t>
+          <t>1666556854.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -8190,57 +8190,57 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19.52</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>4.82%</t>
+          <t>24.79%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>-27.51%</t>
+          <t>12.81%</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>83.07</t>
+          <t>181.53</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>45135</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>創見-半導體業-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
@@ -8262,17 +8262,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1282.0</t>
+          <t>15169.923</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8282,27 +8282,27 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>33.37</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -8312,72 +8312,72 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>23.86</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>9552</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>219.0</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -8392,32 +8392,32 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>80466457.0</t>
+          <t>1195306729.0</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>春源</t>
+          <t>銘旺科</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -8427,57 +8427,57 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>-27.51%</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>13601</t>
+          <t>5335</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>春源-鋼鐵工業-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
@@ -8499,17 +8499,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5250.634</t>
+          <t>1282.0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8519,142 +8519,142 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14.94</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>22.3</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>8016</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>77.0</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>115472733.0</t>
+          <t>80466457.0</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>億泰</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>電器電纜</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
@@ -8664,57 +8664,57 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>14.91%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>21.63</t>
+          <t>41.47</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>13666</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>電力電纜(公噸),電力電纜(米88.77%、通信電纜4.05%、光纖電纜2.56%、其他1.88%、橡膠電纜1.56%、裸銅線1.18% (2023年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>億泰-電器電纜-上市</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
@@ -8736,17 +8736,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>9264.214</t>
+          <t>5250.634</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8756,27 +8756,27 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>14.94</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -8786,72 +8786,72 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>12983</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>438.0</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -8866,32 +8866,32 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>318459199.0</t>
+          <t>115472733.0</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>聚隆</t>
+          <t>億泰</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>電器電纜</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
@@ -8901,57 +8901,57 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>120.71</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>11.78%</t>
+          <t>14.91%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>1.75%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>21.79</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>4766</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>尼龍加工絲43.55%、尼龍原絲23.43%、Lyocell原絲14.41%、其他9.33%、聚酯加工絲6.69%、醫材2.51%、聚酯原絲0.07% (2023年)</t>
+          <t>電力電纜(公噸),電力電纜(米88.77%、通信電纜4.05%、光纖電纜2.56%、其他1.88%、橡膠電纜1.56%、裸銅線1.18% (2023年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>聚隆-紡織纖維-上市</t>
+          <t>億泰-電器電纜-上市</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
@@ -8973,17 +8973,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1248.884</t>
+          <t>9264.214</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8993,27 +8993,27 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>29.3</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -9023,72 +9023,72 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>438.0</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -9098,32 +9098,32 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>-25825859.0</t>
+          <t>318459199.0</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>強盛新</t>
+          <t>聚隆</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -9138,47 +9138,47 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>117.86</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>27.40%</t>
+          <t>11.78%</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>18.16%</t>
+          <t>1.75%</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>62.73</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>5181</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>不動產出售55.81%、代工布43.48%、其他0.71% (2024年)</t>
+          <t>尼龍加工絲43.55%、尼龍原絲23.43%、Lyocell原絲14.41%、其他9.33%、聚酯加工絲6.69%、醫材2.51%、聚酯原絲0.07% (2023年)</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>強盛新-紡織纖維-上市</t>
+          <t>聚隆-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
@@ -9260,17 +9260,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>769</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>18.56</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
@@ -9400,12 +9400,12 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>62.73</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>4518</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -9497,17 +9497,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>7068</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9517,34 +9517,34 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
       <c r="V39" t="inlineStr">
         <is>
           <t>0.30</t>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -9582,7 +9582,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
@@ -9612,7 +9612,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>18.16</t>
+          <t>18.32</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
@@ -9637,12 +9637,12 @@
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>62.73</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>181730</t>
+          <t>183336</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -9734,17 +9734,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9754,12 +9754,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-5.23</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
@@ -9874,12 +9874,12 @@
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>65.32</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>2075</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -9971,17 +9971,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>856</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr">
@@ -10111,12 +10111,12 @@
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>92.4</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>12898</t>
+          <t>12857</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -10208,17 +10208,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>68</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>13317</t>
+          <t>15327</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
@@ -10348,12 +10348,12 @@
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>19.87</t>
+          <t>19.84</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>165270</t>
+          <t>167220</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
